--- a/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>RSKD</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,167 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F8" s="3">
         <v>51100</v>
       </c>
-      <c r="E8" s="3">
-        <v>169700</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>57000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>41700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J8" s="3">
         <v>33200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F9" s="3">
         <v>22500</v>
       </c>
-      <c r="E9" s="3">
-        <v>76900</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>23900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J9" s="3">
         <v>15700</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F10" s="3">
         <v>28600</v>
       </c>
-      <c r="E10" s="3">
-        <v>92800</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>33100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J10" s="3">
         <v>17500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +837,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F12" s="3">
         <v>11500</v>
       </c>
-      <c r="E12" s="3">
-        <v>36600</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J12" s="3">
         <v>6800</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,37 +938,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54400</v>
+        <v>75500</v>
       </c>
       <c r="E17" s="3">
-        <v>176400</v>
+        <v>57300</v>
       </c>
       <c r="F17" s="3">
+        <v>93600</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
         <v>37000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3300</v>
+        <v>-23000</v>
       </c>
       <c r="E18" s="3">
-        <v>-6700</v>
+        <v>-1600</v>
       </c>
       <c r="F18" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,66 +1074,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39700</v>
+        <v>-64400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>-18500</v>
       </c>
       <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>6100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-86700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-42500</v>
       </c>
-      <c r="E21" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>2500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,66 +1175,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-43000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="J23" s="3">
         <v>2300</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,49 +1280,61 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-43700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-43700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,14 +1344,20 @@
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,49 +1490,61 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39700</v>
+        <v>64400</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>18500</v>
       </c>
       <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>-6100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-43700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,14 +1554,20 @@
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,20 +1595,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-43700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1465,48 +1624,60 @@
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1704,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>444500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>120200</v>
+      </c>
+      <c r="F41" s="3">
         <v>111800</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,20 +1735,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,20 +1770,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F43" s="3">
         <v>26500</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1805,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,20 +1840,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F45" s="3">
         <v>8700</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,20 +1875,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>572700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>184900</v>
+      </c>
+      <c r="F46" s="3">
         <v>154100</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,20 +1910,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,20 +1945,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,20 +1980,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3">
         <v>2400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +2015,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,20 +2085,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F52" s="3">
         <v>13200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,20 +2155,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>598500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>210900</v>
+      </c>
+      <c r="F54" s="3">
         <v>176800</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,20 +2224,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2255,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,20 +2290,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F59" s="3">
         <v>60000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,20 +2325,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>48600</v>
+      </c>
+      <c r="F60" s="3">
         <v>61700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2360,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,20 +2395,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F62" s="3">
         <v>39700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2430,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,20 +2535,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>102500</v>
+      </c>
+      <c r="F66" s="3">
         <v>101400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,20 +2655,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>210100</v>
+      </c>
+      <c r="F70" s="3">
         <v>159600</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,20 +2725,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-218700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-131800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-111300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,20 +2865,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>535800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-84200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,54 +2935,66 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-43700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,14 +3004,20 @@
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,20 +3029,22 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +3060,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,20 +3235,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>3900</v>
       </c>
-      <c r="E89" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>400</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3270,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,20 +3289,22 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-700</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3320,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,20 +3390,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F94" s="3">
         <v>6300</v>
       </c>
-      <c r="E94" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1000</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3425,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,20 +3580,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>399300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
-        <v>54000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3615,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,20 +3650,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>324400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="E102" s="3">
-        <v>33900</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-600</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3683,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>RSKD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E8" s="3">
         <v>52500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E9" s="3">
         <v>28300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E10" s="3">
         <v>24300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +851,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E12" s="3">
         <v>14300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,32 +977,35 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E17" s="3">
         <v>75500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>93600</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
         <v>37000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,78 +1108,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-64400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-18500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>6100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-86700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-42500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>2500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,69 +1220,75 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-87400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1251,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,69 +1334,75 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-86900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-43700</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-86900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-43700</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1356,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,69 +1562,75 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>64400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>18500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-86900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-43700</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1566,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,34 +1676,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-86900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-43700</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1636,48 +1714,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,23 +1791,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>418100</v>
+      </c>
+      <c r="E41" s="3">
         <v>444500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>120200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>111800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,23 +1827,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E42" s="3">
         <v>85000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,23 +1865,26 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E43" s="3">
         <v>23500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,23 +1941,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E45" s="3">
         <v>19700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,23 +1979,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>565100</v>
+      </c>
+      <c r="E46" s="3">
         <v>572700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>184900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>154100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1927,12 +2031,12 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>2200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,23 +2055,26 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1997,12 +2107,12 @@
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
         <v>2400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,23 +2207,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E52" s="3">
         <v>14900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,23 +2283,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600600</v>
+      </c>
+      <c r="E54" s="3">
         <v>598500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>210900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>176800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,23 +2355,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,23 +2429,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E59" s="3">
         <v>49600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,23 +2467,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E60" s="3">
         <v>55100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>61700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2505,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,23 +2543,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E62" s="3">
         <v>7600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>39700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,23 +2695,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E66" s="3">
         <v>62700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>101400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2670,14 +2837,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>210100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>159600</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,23 +2901,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-246600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-218700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-131800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-111300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,23 +3053,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>528900</v>
+      </c>
+      <c r="E76" s="3">
         <v>535800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-101700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-84200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,74 +3129,80 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-86900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-43700</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3016,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,23 +3228,24 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3066,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,23 +3454,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,23 +3510,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3326,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,23 +3622,26 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,23 +3828,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>399300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>25900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3621,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,23 +3904,26 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E102" s="3">
         <v>324400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3689,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>RSKD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,205 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>58800</v>
+      </c>
+      <c r="F8" s="3">
         <v>69800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>52500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>55700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>51100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>57000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>41700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>37800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>33200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F9" s="3">
         <v>33100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>28300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>22400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>22500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>23900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>19700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>17700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>15700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F10" s="3">
         <v>36700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>24300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>33300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>28600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>33100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>22000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>20100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>17500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +878,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F12" s="3">
         <v>16900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>14300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>12400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>11500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>9500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6800</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +962,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,46 +1006,58 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1069,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>91700</v>
+      </c>
+      <c r="F17" s="3">
         <v>97300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>75500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>57300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>93600</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
         <v>37000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-27500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-23000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-42500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,84 +1175,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-64400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-18500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-26100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-86700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-19600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-42500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>2500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,84 +1303,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-26700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-87400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-20200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-43000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-10400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1435,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-86900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-20500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-43700</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-86900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-20500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-43700</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1567,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1611,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1655,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1699,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>64400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>18500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-86900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-20500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-43700</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
+      <c r="K33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1831,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-86900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-20500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-43700</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
+      <c r="K35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1946,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1964,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>290900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>341400</v>
+      </c>
+      <c r="F41" s="3">
         <v>418100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>444500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>120200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>111800</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,29 +2004,35 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>151900</v>
+      </c>
+      <c r="F42" s="3">
         <v>85100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>85000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>25000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>7000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,29 +2048,35 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F43" s="3">
         <v>35500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>23500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>26100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>26500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +2092,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,29 +2136,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F45" s="3">
         <v>26300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>19700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2180,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>523500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>535000</v>
+      </c>
+      <c r="F46" s="3">
         <v>565100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>572700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>184900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>154100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2224,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2034,15 +2244,15 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>2200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,29 +2268,35 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>56700</v>
+      </c>
+      <c r="F48" s="3">
         <v>17000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2312,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2110,15 +2332,15 @@
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
         <v>2400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2356,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2400,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2444,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F52" s="3">
         <v>18600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>14900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>20300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>13200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2488,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2532,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>599100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>610700</v>
+      </c>
+      <c r="F54" s="3">
         <v>600600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>598500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>210900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>176800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2576,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2598,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2616,31 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2656,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,29 +2700,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F59" s="3">
         <v>62200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>49600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>46600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>60000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2744,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>54200</v>
+      </c>
+      <c r="F60" s="3">
         <v>62400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>55100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>48600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>61700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2788,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,29 +2832,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F62" s="3">
         <v>9400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>7600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>54000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>39700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2876,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2920,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2964,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +3008,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>94900</v>
+      </c>
+      <c r="F66" s="3">
         <v>71800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>62700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>102500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>101400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +3052,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +3074,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +3114,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +3158,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2840,17 +3176,17 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>210100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>159600</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3202,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3246,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-312900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-279800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-246600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-218700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-131800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-111300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3290,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3334,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3378,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3422,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>499100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>515800</v>
+      </c>
+      <c r="F76" s="3">
         <v>528900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>535800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-101700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-84200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3466,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3510,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-86900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-20500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-43700</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
+      <c r="K81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,29 +3625,31 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>600</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,8 +3665,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3709,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3753,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3797,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3841,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,29 +3885,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-14000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-11500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3929,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,29 +3951,31 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3991,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +4035,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,29 +4079,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-63400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-18900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>6300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +4123,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +4145,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +4185,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +4229,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4273,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,29 +4317,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>399300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>25900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,31 +4361,37 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-600</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3907,29 +4405,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-23900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>324400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>9600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4447,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
   <si>
     <t>RSKD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E8" s="3">
         <v>59900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>69800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>51100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>57000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E9" s="3">
         <v>29300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>33100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E10" s="3">
         <v>30600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E12" s="3">
         <v>17600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,19 +1032,22 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>800</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>800</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1032,32 +1055,35 @@
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>92700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>91700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>97300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>75500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>93600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <v>37000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-42500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-3800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-64400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-18500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>6100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-31200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-86700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-42500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>2500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,87 +1349,93 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-87400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,87 +1490,93 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-86900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-86900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43700</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1529,8 +1584,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,87 +1772,93 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>64400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>18500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-6100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-86900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43700</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1866,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,43 +1913,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-86900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43700</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1881,57 +1960,63 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>294900</v>
+      </c>
+      <c r="E41" s="3">
         <v>290900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>341400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>418100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>444500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>120200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>111800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,32 +2097,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>186900</v>
+      </c>
+      <c r="E42" s="3">
         <v>192500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>151900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>85100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>85000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,32 +2144,35 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E43" s="3">
         <v>28300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,32 +2238,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>521700</v>
+      </c>
+      <c r="E46" s="3">
         <v>523500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>535000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>565100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>572700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>184900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>154100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2250,12 +2355,12 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>2200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2274,32 +2379,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E48" s="3">
         <v>55500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>56700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2338,12 +2449,12 @@
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3">
         <v>2400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,32 +2567,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E52" s="3">
         <v>20100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>598800</v>
+      </c>
+      <c r="E54" s="3">
         <v>599100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>610700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>598500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>210900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>176800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,32 +2840,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E59" s="3">
         <v>59000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E60" s="3">
         <v>60700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>61700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2934,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E62" s="3">
         <v>39200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>54000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>39700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E66" s="3">
         <v>99900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>94900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>102500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>101400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3182,14 +3350,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>210100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>159600</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-338700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-312900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-279800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-246600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-218700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-131800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-111300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>499100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>515800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>528900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>535800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-101700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-84200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,92 +3705,98 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-86900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43700</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3609,8 +3804,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,32 +3825,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,32 +4105,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3962,23 +4183,23 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,32 +4312,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-63400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,32 +4566,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>399300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>25900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4367,20 +4613,23 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4393,8 +4642,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4411,32 +4660,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-53500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-76600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>324400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>RSKD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,230 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E8" s="3">
         <v>63200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>59900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>57000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E9" s="3">
         <v>30500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>29300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>33100</v>
       </c>
-      <c r="H9" s="3">
-        <v>28300</v>
-      </c>
       <c r="I9" s="3">
+        <v>56500</v>
+      </c>
+      <c r="J9" s="3">
         <v>22400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E10" s="3">
         <v>32700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36700</v>
       </c>
-      <c r="H10" s="3">
-        <v>24300</v>
-      </c>
       <c r="I10" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J10" s="3">
         <v>33300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="E12" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F12" s="3">
         <v>17600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16900</v>
       </c>
-      <c r="H12" s="3">
-        <v>14300</v>
-      </c>
       <c r="I12" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J12" s="3">
         <v>12400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,13 +1054,16 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
@@ -1049,41 +1071,44 @@
       <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>96300</v>
       </c>
       <c r="E17" s="3">
+        <v>89200</v>
+      </c>
+      <c r="F17" s="3">
         <v>92700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>91700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>97300</v>
       </c>
-      <c r="H17" s="3">
-        <v>75500</v>
-      </c>
       <c r="I17" s="3">
+        <v>80100</v>
+      </c>
+      <c r="J17" s="3">
         <v>57300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>93600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
         <v>37000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-17000</v>
       </c>
       <c r="E18" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-32800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-23000</v>
-      </c>
       <c r="I18" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-42500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-3800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1243,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>6800</v>
       </c>
       <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-64400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-18500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>6100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-8900</v>
       </c>
       <c r="E21" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-86700</v>
-      </c>
       <c r="I21" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-19600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-42500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,93 +1391,99 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-87400</v>
-      </c>
       <c r="I23" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-20200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-43000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
-        <v>-500</v>
-      </c>
       <c r="I24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1446,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,93 +1541,99 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-11800</v>
       </c>
       <c r="E26" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-33000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-86900</v>
-      </c>
       <c r="I26" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-20500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
         <v>2300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-11800</v>
       </c>
       <c r="E27" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-33000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-86900</v>
-      </c>
       <c r="I27" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-20500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1587,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,93 +1841,99 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-6800</v>
       </c>
       <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>64400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>18500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-6100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-11800</v>
       </c>
       <c r="E33" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-33000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-86900</v>
-      </c>
       <c r="I33" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-20500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1869,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,46 +1991,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-11800</v>
       </c>
       <c r="E35" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-33000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-86900</v>
-      </c>
       <c r="I35" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-20500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -1963,60 +2041,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2138,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E41" s="3">
         <v>294900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>290900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>341400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>418100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>444500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>120200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>111800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,35 +2186,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E42" s="3">
         <v>186900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>192500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>151900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>85100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>85000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,35 +2236,38 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E43" s="3">
         <v>30500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2286,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,35 +2336,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,35 +2386,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>529900</v>
+      </c>
+      <c r="E46" s="3">
         <v>521700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>523500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>535000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>565100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>572700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>184900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>154100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2358,12 +2462,12 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>2200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,35 +2486,38 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E48" s="3">
         <v>55000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>55500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2452,12 +2562,12 @@
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,35 +2686,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E52" s="3">
         <v>22100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2786,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E54" s="3">
         <v>598800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>599100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>610700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>598500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>210900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>176800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2878,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,35 +2976,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E59" s="3">
         <v>66100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>62200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>60000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,35 +3026,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E60" s="3">
         <v>68500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>61700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3126,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2993,26 +3138,26 @@
         <v>39900</v>
       </c>
       <c r="E62" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F62" s="3">
         <v>39200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>54000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>39700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3326,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E66" s="3">
         <v>108400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>99900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>94900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>102500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>101400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3353,14 +3520,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>210100</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>159600</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3596,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-350600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-338700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-312900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-279800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-246600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-218700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-131800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-111300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3796,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>496400</v>
       </c>
       <c r="E76" s="3">
+        <v>490400</v>
+      </c>
+      <c r="F76" s="3">
         <v>499100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>515800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>528900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>535800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-101700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-84200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,98 +3896,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-11800</v>
       </c>
       <c r="E81" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-33000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-86900</v>
-      </c>
       <c r="I81" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-20500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -3807,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,35 +4023,36 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3873,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,35 +4321,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4155,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,35 +4393,36 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,35 +4541,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="E94" s="3">
         <v>5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-63400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,35 +4811,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>399300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>25900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4616,23 +4861,26 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4645,8 +4893,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4663,35 +4911,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5000</v>
+        <v>-106400</v>
       </c>
       <c r="E102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-53500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-76600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>324400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>RSKD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E8" s="3">
         <v>79300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>63200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>59900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>58800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>69800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>52500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>55700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>57000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E9" s="3">
         <v>37900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>29300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>33100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>56500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E10" s="3">
         <v>41400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-4000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E12" s="3">
         <v>18000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6800</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,31 +1024,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1057,16 +1077,19 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
@@ -1074,41 +1097,44 @@
       <c r="G15" s="3">
         <v>800</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H15" s="3">
+        <v>800</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E17" s="3">
         <v>96300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>89200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>91700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>97300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>80100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>57300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>93600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
         <v>37000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-3800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,108 +1277,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-64400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-18500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>6100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-31200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-91400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-42500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>2500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,99 +1434,105 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-92000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-43000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,99 +1593,105 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-91700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
         <v>2300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-33300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-91700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,99 +1911,105 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>64400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>18500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-6100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-33300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-91700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,49 +2070,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-33300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-91700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2044,63 +2123,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,38 +2225,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E41" s="3">
         <v>188700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>294900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>290900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>341400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>418100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>444500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>120200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,38 +2276,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E42" s="3">
         <v>287000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>186900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>192500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>151900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>85100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>85000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,38 +2329,41 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E43" s="3">
         <v>37500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>26100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,38 +2435,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E45" s="3">
         <v>16700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,38 +2488,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>521300</v>
+      </c>
+      <c r="E46" s="3">
         <v>529900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>521700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>523500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>535000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>565100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>572700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>184900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>154100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,38 +2541,41 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>2200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,38 +2594,41 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E48" s="3">
         <v>53700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>55000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>55500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>56700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,38 +2647,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
         <v>2400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,38 +2806,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E52" s="3">
         <v>25300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,38 +2912,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>598400</v>
+      </c>
+      <c r="E54" s="3">
         <v>609000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>598800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>599100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>610700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>598500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>210900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>176800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,38 +3009,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,38 +3113,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E59" s="3">
         <v>70500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,38 +3166,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E60" s="3">
         <v>72600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>68500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,38 +3272,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39900</v>
+        <v>39400</v>
       </c>
       <c r="E62" s="3">
         <v>39900</v>
       </c>
       <c r="F62" s="3">
+        <v>39900</v>
+      </c>
+      <c r="G62" s="3">
         <v>39200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,38 +3484,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E66" s="3">
         <v>112500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>108400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>99900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>71800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>102500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>101400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3523,14 +3691,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>210100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>159600</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,38 +3770,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-368500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-350600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-338700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-312900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-279800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-246600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-218700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-131800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-111300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,38 +3982,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>495500</v>
+      </c>
+      <c r="E76" s="3">
         <v>496400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>490400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>499100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>515800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>528900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>535800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-101700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-84200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,104 +4088,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-33300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-91700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4033,29 +4232,29 @@
         <v>1300</v>
       </c>
       <c r="E83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,38 +4538,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,38 +4614,39 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2700</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,38 +4771,41 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-104300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-63400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,38 +5057,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>399300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>25900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,26 +5110,29 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4896,8 +5145,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4914,38 +5163,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-106400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-53500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-76600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>324400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>RSKD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E8" s="3">
         <v>68900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>63200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>59900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>58800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>69800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>57000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E9" s="3">
         <v>33100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>29300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>33100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>56500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E10" s="3">
         <v>35800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-4000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E12" s="3">
         <v>18400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6800</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,16 +1044,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1053,8 +1073,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1089,10 +1112,10 @@
         <v>800</v>
       </c>
       <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
@@ -1100,41 +1123,44 @@
       <c r="H15" s="3">
         <v>800</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="3">
+        <v>800</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E17" s="3">
         <v>91900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>96300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>89200</v>
       </c>
-      <c r="G17" s="3">
-        <v>92700</v>
-      </c>
       <c r="H17" s="3">
-        <v>91700</v>
+        <v>92900</v>
       </c>
       <c r="I17" s="3">
+        <v>91800</v>
+      </c>
+      <c r="J17" s="3">
         <v>97300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>80100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>93600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
         <v>37000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-32800</v>
-      </c>
       <c r="H18" s="3">
-        <v>-32900</v>
+        <v>-33000</v>
       </c>
       <c r="I18" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-27500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-42500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,114 +1311,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>6200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-64400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>6100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-30600</v>
-      </c>
       <c r="H21" s="3">
-        <v>-31200</v>
+        <v>-30700</v>
       </c>
       <c r="I21" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-26100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-91400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-42500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,105 +1477,111 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-31500</v>
-      </c>
       <c r="H23" s="3">
-        <v>-32200</v>
+        <v>-31700</v>
       </c>
       <c r="I23" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-26700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-92000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,105 +1645,111 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-33000</v>
-      </c>
       <c r="H26" s="3">
-        <v>-33300</v>
+        <v>-33200</v>
       </c>
       <c r="I26" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-27900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-91700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
         <v>2300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-33000</v>
-      </c>
       <c r="H27" s="3">
-        <v>-33300</v>
+        <v>-33200</v>
       </c>
       <c r="I27" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-27900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-91700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,105 +1981,111 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>64400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-33000</v>
-      </c>
       <c r="H33" s="3">
-        <v>-33300</v>
+        <v>-33200</v>
       </c>
       <c r="I33" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-27900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-91700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,52 +2149,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-33000</v>
-      </c>
       <c r="H35" s="3">
-        <v>-33300</v>
+        <v>-33200</v>
       </c>
       <c r="I35" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-27900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-91700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2126,66 +2205,72 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>383800</v>
+      </c>
+      <c r="E41" s="3">
         <v>269200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>294900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>290900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>341400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>418100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>444500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>120200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>111800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,41 +2366,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E42" s="3">
         <v>208000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>287000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>186900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>192500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>151900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>85100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>85000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,41 +2422,44 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E43" s="3">
         <v>28500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E45" s="3">
         <v>15600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>525500</v>
+      </c>
+      <c r="E46" s="3">
         <v>521300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>529900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>521700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>523500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>535000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>565100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>572700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>184900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>154100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2570,15 +2675,15 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>2200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E48" s="3">
         <v>51900</v>
       </c>
-      <c r="E48" s="3">
-        <v>53700</v>
-      </c>
       <c r="F48" s="3">
+        <v>107500</v>
+      </c>
+      <c r="G48" s="3">
         <v>55000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>55500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>56700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,41 +2758,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,41 +2926,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E52" s="3">
         <v>25200</v>
       </c>
-      <c r="E52" s="3">
-        <v>25300</v>
-      </c>
       <c r="F52" s="3">
+        <v>27200</v>
+      </c>
+      <c r="G52" s="3">
         <v>22100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>598500</v>
+      </c>
+      <c r="E54" s="3">
         <v>598400</v>
       </c>
-      <c r="E54" s="3">
-        <v>609000</v>
-      </c>
       <c r="F54" s="3">
+        <v>607000</v>
+      </c>
+      <c r="G54" s="3">
         <v>598800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>599100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>610700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>598500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>210900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>176800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,8 +3250,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3125,32 +3262,32 @@
         <v>61100</v>
       </c>
       <c r="E59" s="3">
+        <v>61100</v>
+      </c>
+      <c r="F59" s="3">
         <v>70500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E60" s="3">
         <v>63500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>72600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>68500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>60700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>55100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3275,41 +3418,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E62" s="3">
         <v>39400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>48700</v>
+      </c>
+      <c r="G62" s="3">
         <v>39900</v>
       </c>
-      <c r="F62" s="3">
-        <v>39900</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>39200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>40700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E66" s="3">
         <v>103000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>108400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>99900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>71800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>101400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3694,14 +3862,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>210100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>159600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,41 +3944,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-387400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-368500</v>
       </c>
-      <c r="E72" s="3">
-        <v>-350600</v>
-      </c>
       <c r="F72" s="3">
+        <v>-352500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-338700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-312900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-279800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-246600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-218700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-131800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-111300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>494300</v>
+      </c>
+      <c r="E76" s="3">
         <v>495500</v>
       </c>
-      <c r="E76" s="3">
-        <v>496400</v>
-      </c>
       <c r="F76" s="3">
+        <v>494400</v>
+      </c>
+      <c r="G76" s="3">
         <v>490400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>499100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>515800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>528900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>535800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-101700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-84200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,110 +4280,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-33000</v>
-      </c>
       <c r="H81" s="3">
-        <v>-33300</v>
+        <v>-33200</v>
       </c>
       <c r="I81" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-27900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-91700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,29 +4434,29 @@
         <v>1300</v>
       </c>
       <c r="F83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,41 +4755,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,41 +4835,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1000</v>
       </c>
       <c r="G91" s="3">
         <v>-1000</v>
       </c>
       <c r="H91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,41 +5001,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E94" s="3">
         <v>78800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-104300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-63400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,41 +5303,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>399300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,29 +5359,32 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5148,8 +5397,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5166,41 +5415,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E102" s="3">
         <v>80500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-106400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-53500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-76600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>324400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSKD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
   <si>
     <t>RSKD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,269 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E8" s="3">
         <v>72800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>68900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>79300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>63200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>59900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>58800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>69800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>57000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E9" s="3">
         <v>35700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>33100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>29300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>28500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>33100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E10" s="3">
         <v>37100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>30300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-4000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E12" s="3">
         <v>17900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6800</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,25 +1064,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1076,8 +1096,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1115,10 +1138,10 @@
         <v>800</v>
       </c>
       <c r="F15" s="3">
+        <v>800</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
@@ -1126,41 +1149,44 @@
       <c r="I15" s="3">
         <v>800</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J15" s="3">
+        <v>800</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
         <v>300</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E17" s="3">
         <v>94900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>91900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>96300</v>
       </c>
-      <c r="G17" s="3">
-        <v>89200</v>
-      </c>
       <c r="H17" s="3">
+        <v>89300</v>
+      </c>
+      <c r="I17" s="3">
         <v>92900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>91800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>97300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>80100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>93600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3">
         <v>37000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-26000</v>
-      </c>
       <c r="H18" s="3">
-        <v>-33000</v>
+        <v>-26100</v>
       </c>
       <c r="I18" s="3">
         <v>-33000</v>
       </c>
       <c r="J18" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-27500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-42500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-3800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>6100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-64400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>6100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-23000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-30700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-31400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-91400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-42500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>2500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,111 +1520,117 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-24000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-31700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-32300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-92000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-43000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,111 +1697,117 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-33200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-91700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
         <v>2300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-33200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-91700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-43700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1760,8 +1815,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,111 +2051,117 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>64400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-6100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-33200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-91700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-43700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2169,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,55 +2228,58 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-33200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-91700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-43700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2208,69 +2287,75 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>435500</v>
+      </c>
+      <c r="E41" s="3">
         <v>383800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>269200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>188700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>294900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>290900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>341400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>418100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>444500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>111800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,44 +2456,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E42" s="3">
         <v>90000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>208000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>287000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>186900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>192500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>151900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>85100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>85000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,44 +2515,47 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E43" s="3">
         <v>38000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,44 +2633,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
         <v>13700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>493700</v>
+      </c>
+      <c r="E46" s="3">
         <v>525500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>521300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>529900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>521700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>523500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>535000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>565100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>572700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>184900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>154100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,44 +2751,47 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>28900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>2200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,44 +2810,47 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E48" s="3">
         <v>50100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>51900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>107500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>55000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>55500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>56700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2772,12 +2883,12 @@
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
         <v>5000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2787,18 +2898,18 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
         <v>2400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,44 +3046,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E52" s="3">
         <v>22900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>592500</v>
+      </c>
+      <c r="E54" s="3">
         <v>598500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>598400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>607000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>598800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>599100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>610700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>598500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>210900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>176800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,44 +3271,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,44 +3387,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>61100</v>
+        <v>62700</v>
       </c>
       <c r="E59" s="3">
         <v>61100</v>
       </c>
       <c r="F59" s="3">
+        <v>61100</v>
+      </c>
+      <c r="G59" s="3">
         <v>70500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E60" s="3">
         <v>65000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>72600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>68500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>60700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>54200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>61700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,44 +3564,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E62" s="3">
         <v>39200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>39400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>48700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>39900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>39200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>40700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>54000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>39700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E66" s="3">
         <v>104200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>103000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>108400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>99900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>94900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>71800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>101400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3865,14 +4033,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>210100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>159600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-408300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-387400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-368500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-352500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-338700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-312900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-279800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-246600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-218700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-131800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-111300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>488900</v>
+      </c>
+      <c r="E76" s="3">
         <v>494300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>495500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>494400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>490400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>499100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>515800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>528900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>535800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-101700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-84200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,116 +4472,122 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-33200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-91700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-43700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4400,8 +4595,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4437,29 +4636,29 @@
         <v>1300</v>
       </c>
       <c r="G83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,44 +4972,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,44 +5056,45 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1000</v>
       </c>
       <c r="H91" s="3">
         <v>-1000</v>
       </c>
       <c r="I91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,44 +5231,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E94" s="3">
         <v>117900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>78800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-104300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-41200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,44 +5549,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>399300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>25900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5362,32 +5608,35 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5400,8 +5649,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5418,44 +5667,47 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E102" s="3">
         <v>114600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>80500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-106400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-53500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-76600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>324400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,6 +5724,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
